--- a/Project Outputs for stm8s105s4_pcb/stm8s105s4_pcb.xlsx
+++ b/Project Outputs for stm8s105s4_pcb/stm8s105s4_pcb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\下载\stm8s105s4_pcb\Project Outputs for stm8s105s4_pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\下载\stm8s105s4_pcb\Project Outputs for stm8s105s4_pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
     <t>105,0603</t>
   </si>
   <si>
-    <t>C2, C5, C7, C9, C10, C11</t>
+    <t>C2, C5, C7, C9, C10</t>
   </si>
   <si>
     <t>106,0603</t>
@@ -80,7 +80,7 @@
     <t>C6</t>
   </si>
   <si>
-    <t>22P,0603</t>
+    <t>220,0603</t>
   </si>
   <si>
     <t>C8, C12</t>
@@ -191,7 +191,7 @@
     <t>usb-STM</t>
   </si>
   <si>
-    <t>32.768K</t>
+    <t>8M</t>
   </si>
   <si>
     <t>Crystal Oscillator</t>
@@ -200,7 +200,7 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>XTAL-3215</t>
+    <t>XTAL-5032</t>
   </si>
   <si>
     <t>XTAL</t>
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
